--- a/network_automation_app/device_information/设备巡检/设备版本号.xlsx
+++ b/network_automation_app/device_information/设备巡检/设备版本号.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NET_Version" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NET_Version" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +537,7 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>172.16.63.58</t>
+          <t>172.16.63.62</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8.120</t>
+          <t>8.150</t>
         </is>
       </c>
     </row>
@@ -840,17 +840,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>FD4-D06&amp;D08-CE6850-1</t>
+          <t>FD4-D09&amp;D11-CE6850-1</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.109</t>
+          <t>51.51.51.104</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE6855-48T6Q-HI</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -862,17 +862,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>FD4-D09&amp;D11-CE6850-1</t>
+          <t>FD4-D14&amp;D16-CE6850-1</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.104</t>
+          <t>51.51.51.111</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>CE6855-48T6Q-HI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -884,12 +884,12 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>FD4-D10&amp;D12-CE6850-1</t>
+          <t>FD4-D17&amp;D19-CE6850-1</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.110</t>
+          <t>51.51.51.106</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -906,17 +906,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>FD4-D14&amp;D16-CE6850-1</t>
+          <t>FD4-D22-CE12812-DSJ-1</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.111</t>
+          <t>51.51.51.100</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE12812</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -928,12 +928,12 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>FD4-D17&amp;D19-CE6850-1</t>
+          <t>FD4-D22-CE6850-1</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.106</t>
+          <t>51.51.51.113</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -950,17 +950,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>FD4-D18&amp;D20-CE6850-1</t>
+          <t>FD4-D24-CE12812-DSJ-1</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.112</t>
+          <t>51.51.51.101</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE12812</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -972,17 +972,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>FD4-D22-CE12812-DSJ-1</t>
+          <t>SQ-5F-I16-CE8860</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.100</t>
+          <t>51.51.51.2</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>CE12812</t>
+          <t>CE8860-4C-EI</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -994,12 +994,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>FD4-D22-CE6850-1</t>
+          <t>XY-2F-C01&amp;C02-CE6850</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.113</t>
+          <t>51.51.51.28</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
@@ -1016,17 +1016,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>FD4-D24-CE12812-DSJ-1</t>
+          <t>XY-2F-C03&amp;C04-CE6850</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.101</t>
+          <t>51.51.51.29</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>CE12812</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1038,17 +1038,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>SQ-5F-I16-CE8860</t>
+          <t>XY-2F-C05&amp;C06-CE6851</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.2</t>
+          <t>51.51.51.33</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>CE8860-4C-EI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1060,12 +1060,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-C01&amp;C02-CE6850</t>
+          <t>XY-2F-C07&amp;C08-CE6851</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.28</t>
+          <t>51.51.51.34</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
@@ -1082,12 +1082,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-C03&amp;C04-CE6850</t>
+          <t>XY-2F-D03&amp;D04-CE6850</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.29</t>
+          <t>51.51.51.22</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
@@ -1104,12 +1104,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-C05&amp;C06-CE6851</t>
+          <t>XY-2F-D06-CE6850</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.33</t>
+          <t>51.51.51.23</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-C07&amp;C08-CE6851</t>
+          <t>XY-2F-D08-CE6850</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.34</t>
+          <t>51.51.51.24</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
@@ -1148,17 +1148,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-D03&amp;D04-CE6850</t>
+          <t>XY-2F-D09-CE8860</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.22</t>
+          <t>51.51.51.30</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE8860-4C-EI</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -1170,17 +1170,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-D06-CE6850</t>
+          <t>XY-2F-D10-CE8860</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.23</t>
+          <t>51.51.51.31</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE8860-4C-EI</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -1192,12 +1192,12 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-D08-CE6850</t>
+          <t>XY-2F-E01&amp;E02-CE6850</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.24</t>
+          <t>51.51.51.9</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
@@ -1214,17 +1214,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-D09-CE8860</t>
+          <t>XY-2F-E04-CE685</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.30</t>
+          <t>51.51.51.10</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>CE8860-4C-EI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -1236,39 +1236,39 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-D10-CE8860</t>
+          <t>XY-2F-E05&amp;E06-CE6810</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.31</t>
+          <t>115.238.29.6</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>CE8860-4C-EI</t>
+          <t>CE6810-32T16S4Q-LI</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>8.150</t>
+          <t>8.120</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E01&amp;E02-CE6850</t>
+          <t>XY-2F-E05-CE12812</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.9</t>
+          <t>51.51.51.8</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE12812</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -1280,17 +1280,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E04-CE685</t>
+          <t>XY-2F-E05-CE8860</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.10</t>
+          <t>51.51.51.3</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>CE8860-4C-EI</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -1302,39 +1302,39 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E05&amp;E06-CE6810</t>
+          <t>XY-2F-E06-CE12812</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>115.238.29.6</t>
+          <t>51.51.51.13</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>CE6810-32T16S4Q-LI</t>
+          <t>CE12812</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>8.120</t>
+          <t>8.150</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E05-CE12812</t>
+          <t>XY-2F-E06-CE8860</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.8</t>
+          <t>51.51.51.4</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>CE12812</t>
+          <t>CE8860-4C-EI</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -1346,17 +1346,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E05-CE8860</t>
+          <t>XY-2F-E07&amp;E08-CE6850</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.3</t>
+          <t>51.51.51.11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>CE8860-4C-EI</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -1368,56 +1368,56 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E06-CE12812</t>
+          <t>XY-2F-E09&amp;E10-CE6850</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.13</t>
+          <t>51.51.51.12</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>CE12812</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>8.150</t>
+          <t>8.120</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E06-CE8860</t>
+          <t>XY-2F-E11-S5720-255.249</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.4</t>
+          <t>172.16.255.249</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>CE8860-4C-EI</t>
+          <t>S5720-36C-EI-AC</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>8.150</t>
+          <t>5.170</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E07&amp;E08-CE6850</t>
+          <t>XY-2F-F01&amp;F02-CE6850</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.11</t>
+          <t>51.51.51.15</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -1427,19 +1427,19 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>8.150</t>
+          <t>8.120</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E09&amp;E10-CE6850</t>
+          <t>XY-2F-F03&amp;F04-CE6850</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.12</t>
+          <t>51.51.51.16</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -1456,34 +1456,34 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-E11-S5720-255.249</t>
+          <t>XY-2F-F05&amp;F06-CE6850</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>172.16.255.249</t>
+          <t>51.51.51.17</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>S5720-36C-EI-AC</t>
+          <t>CE6850-48T6Q-HI</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>5.170</t>
+          <t>8.120</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-F01&amp;F02-CE6850</t>
+          <t>XY-2F-F07&amp;F08-CE6850</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.15</t>
+          <t>51.51.51.18</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-F03&amp;F04-CE6850</t>
+          <t>XY-2F-D09-CE6850</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.16</t>
+          <t>51.51.51.19</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
@@ -1515,90 +1515,90 @@
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>8.120</t>
+          <t>8.150</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-F05&amp;F06-CE6850</t>
+          <t>FD-1F-E01-S5720-1</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.17</t>
+          <t>10.253.224.254</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>S5720-36C-EI-AC</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>8.120</t>
+          <t>5.170</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-F07&amp;F08-CE6850</t>
+          <t>172.16.63.19-office&amp;stale</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.18</t>
+          <t>172.16.63.19</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>8.120</t>
+          <t>5.170</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>XY-2F-D09-CE6850</t>
+          <t>172.16.63.12-FD-bank</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>51.51.51.19</t>
+          <t>172.16.63.12</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>CE6850-48T6Q-HI</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>8.150</t>
+          <t>5.170</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>FD-1F-E01-S5720-1</t>
+          <t>172.16.193.6-XY-bank</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>10.253.224.254</t>
+          <t>172.16.193.6</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>S5720-36C-EI-AC</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>BIG-IP 4000</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>2.02.171.0</t>
+          <t>None</t>
         </is>
       </c>
     </row>
